--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1398037.921256156</v>
+        <v>1393167.74397142</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8296541.918375792</v>
+        <v>8296541.918375794</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>196.2419059683852</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>121.3283013627339</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -1454,22 +1454,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.7848734220132</v>
+        <v>56.17300174759401</v>
       </c>
       <c r="H12" t="n">
         <v>77.03851849986194</v>
       </c>
       <c r="I12" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>113.625858512588</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U12" t="n">
         <v>207.8918312087472</v>
@@ -1511,10 +1511,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>125.5403950282403</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>88.35892863242336</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.6708174907576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I13" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>11.64876858511167</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -1596,7 +1596,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -1615,19 +1615,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>122.8794053225739</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>53.13434940644586</v>
       </c>
       <c r="I14" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
@@ -1703,7 +1703,7 @@
         <v>117.7848734220132</v>
       </c>
       <c r="H15" t="n">
-        <v>77.03851849986194</v>
+        <v>26.20473145267905</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T15" t="n">
-        <v>113.7757649964217</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U15" t="n">
         <v>207.8918312087472</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
@@ -1754,7 +1754,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S16" t="n">
-        <v>109.4993258261182</v>
+        <v>29.74905034457855</v>
       </c>
       <c r="T16" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I17" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V17" t="n">
-        <v>42.95312320245112</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>147.2488068424998</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>11.90382589688437</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>141.9470532368686</v>
       </c>
       <c r="U18" t="n">
-        <v>46.99022366018773</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2131317299466</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H19" t="n">
-        <v>145.915760422358</v>
+        <v>43.59376423765728</v>
       </c>
       <c r="I19" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>185.0912503946672</v>
@@ -2058,7 +2058,7 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.0231810178811</v>
+        <v>400.6548023699258</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U20" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V20" t="n">
-        <v>236.7349625329034</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>121.3076943505705</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>11.90382589688437</v>
@@ -2225,10 +2225,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>183.4282411180639</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>158.5597699158308</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>126.9499274535062</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>17.85112073664382</v>
+        <v>241.75026100659</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H23" t="n">
         <v>300.2783333401841</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>110.5962631997522</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>85.82270786544545</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H25" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T25" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0345665146277</v>
+        <v>40.7859963979476</v>
       </c>
       <c r="V26" t="n">
-        <v>35.94814592872131</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.48471346905777</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.915760422358</v>
+        <v>92.91114218612155</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72.34093933438447</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>262.0401781482831</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>39.96981308975091</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>58.29703718529098</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>224.0099173505878</v>
       </c>
       <c r="E32" t="n">
-        <v>49.00907511533139</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I32" t="n">
         <v>59.54237137282635</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.4758086907236</v>
@@ -3088,16 +3088,16 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -3198,16 +3198,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>165.6708174907576</v>
       </c>
       <c r="H34" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>185.0912503946672</v>
@@ -3243,19 +3243,19 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U34" t="n">
-        <v>67.99267961399646</v>
+        <v>209.7959547976683</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>53.12698415134957</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T35" t="n">
-        <v>29.65260180322275</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>102.7228736050576</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>141.8694031606378</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>29.73539408050169</v>
       </c>
       <c r="G37" t="n">
         <v>165.6708174907576</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S37" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>85.6030554981546</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>67.28750058411384</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>212.4758086907236</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>324.2934286195165</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>133.211520247456</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>33.67616184197709</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>15.36067134684481</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>185.0912503946672</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>5.720823011356385</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>321.0566743603624</v>
+        <v>69.43740113479541</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>109.640092757163</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>40.11016094128465</v>
       </c>
       <c r="G42" t="n">
         <v>117.7848734220132</v>
@@ -3887,7 +3887,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>41.47636138112851</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -3918,7 +3918,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I43" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T43" t="n">
-        <v>57.07259231653107</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>207.5433184515996</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>407.0231810178811</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U44" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>138.4613242913035</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>117.7848734220132</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>207.8918312087472</v>
       </c>
       <c r="V45" t="n">
-        <v>53.81240441504872</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>11.35018013278186</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -4155,7 +4155,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>40.17657273040111</v>
+        <v>63.23637872163651</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>282.5352749748386</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234.0539687149003</v>
+        <v>507.1081570202764</v>
       </c>
       <c r="C11" t="n">
-        <v>35.82982127208704</v>
+        <v>507.1081570202764</v>
       </c>
       <c r="D11" t="n">
-        <v>35.82982127208704</v>
+        <v>507.1081570202764</v>
       </c>
       <c r="E11" t="n">
-        <v>35.82982127208704</v>
+        <v>507.1081570202764</v>
       </c>
       <c r="F11" t="n">
-        <v>35.82982127208704</v>
+        <v>507.1081570202764</v>
       </c>
       <c r="G11" t="n">
-        <v>35.82982127208704</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="H11" t="n">
-        <v>35.82982127208704</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="I11" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J11" t="n">
         <v>349.1973608293694</v>
       </c>
       <c r="K11" t="n">
-        <v>460.4337383187916</v>
+        <v>498.1717837268669</v>
       </c>
       <c r="L11" t="n">
-        <v>622.4184459954201</v>
+        <v>660.1564914034955</v>
       </c>
       <c r="M11" t="n">
-        <v>823.2427787360874</v>
+        <v>860.9808241441626</v>
       </c>
       <c r="N11" t="n">
-        <v>1030.315634582116</v>
+        <v>1068.053679990191</v>
       </c>
       <c r="O11" t="n">
-        <v>1217.180740651802</v>
+        <v>1254.918786059878</v>
       </c>
       <c r="P11" t="n">
-        <v>1354.240134846936</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1753.753018196276</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R11" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S11" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T11" t="n">
-        <v>1791.491063604352</v>
+        <v>1548.641942393515</v>
       </c>
       <c r="U11" t="n">
-        <v>1791.491063604352</v>
+        <v>1293.051471166618</v>
       </c>
       <c r="V11" t="n">
-        <v>1791.491063604352</v>
+        <v>1293.051471166618</v>
       </c>
       <c r="W11" t="n">
-        <v>1420.492028572639</v>
+        <v>1293.051471166618</v>
       </c>
       <c r="X11" t="n">
-        <v>1031.039423505696</v>
+        <v>903.5988660996752</v>
       </c>
       <c r="Y11" t="n">
-        <v>634.5487144262972</v>
+        <v>507.1081570202764</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>786.2666876305956</v>
+        <v>321.0411428710412</v>
       </c>
       <c r="C12" t="n">
-        <v>635.6124571906878</v>
+        <v>170.3869124311335</v>
       </c>
       <c r="D12" t="n">
-        <v>505.5234898121681</v>
+        <v>170.3869124311335</v>
       </c>
       <c r="E12" t="n">
-        <v>369.0769989230558</v>
+        <v>170.3869124311335</v>
       </c>
       <c r="F12" t="n">
-        <v>244.6451928061876</v>
+        <v>170.3869124311335</v>
       </c>
       <c r="G12" t="n">
-        <v>125.6705731879924</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H12" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I12" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J12" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K12" t="n">
-        <v>137.7445263582622</v>
+        <v>692.8259877172979</v>
       </c>
       <c r="L12" t="n">
-        <v>279.5218871855272</v>
+        <v>1097.478458081305</v>
       </c>
       <c r="M12" t="n">
-        <v>457.551344376828</v>
+        <v>1275.507915272605</v>
       </c>
       <c r="N12" t="n">
-        <v>900.9453826189051</v>
+        <v>1467.614901647812</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.407324436559</v>
+        <v>1628.9123961558</v>
       </c>
       <c r="P12" t="n">
         <v>1745.801362678636</v>
@@ -5150,22 +5150,22 @@
         <v>1676.717469147192</v>
       </c>
       <c r="T12" t="n">
-        <v>1676.717469147192</v>
+        <v>1504.107768077834</v>
       </c>
       <c r="U12" t="n">
-        <v>1466.725720451488</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V12" t="n">
-        <v>1244.185718822555</v>
+        <v>1071.576017753197</v>
       </c>
       <c r="W12" t="n">
-        <v>1117.37723899605</v>
+        <v>841.4587718864836</v>
       </c>
       <c r="X12" t="n">
-        <v>1117.37723899605</v>
+        <v>652.1516942364954</v>
       </c>
       <c r="Y12" t="n">
-        <v>938.0630220715569</v>
+        <v>472.8374773120026</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.1136435718263</v>
+        <v>676.3276684308505</v>
       </c>
       <c r="C13" t="n">
-        <v>308.9085256378156</v>
+        <v>506.1225504968397</v>
       </c>
       <c r="D13" t="n">
-        <v>308.9085256378156</v>
+        <v>506.1225504968397</v>
       </c>
       <c r="E13" t="n">
-        <v>308.9085256378156</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="F13" t="n">
-        <v>308.9085256378156</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="G13" t="n">
-        <v>141.5642655461412</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I13" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J13" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894682</v>
       </c>
       <c r="K13" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273073</v>
       </c>
       <c r="L13" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272393997</v>
       </c>
       <c r="M13" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781576</v>
       </c>
       <c r="N13" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O13" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P13" t="n">
-        <v>1713.402080241571</v>
+        <v>1713.40208024157</v>
       </c>
       <c r="Q13" t="n">
         <v>1791.491063604352</v>
@@ -5226,25 +5226,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S13" t="n">
-        <v>1779.724630690098</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T13" t="n">
-        <v>1547.892879678092</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="U13" t="n">
-        <v>1262.503713036841</v>
+        <v>1506.1018969631</v>
       </c>
       <c r="V13" t="n">
-        <v>996.5243678576655</v>
+        <v>1506.1018969631</v>
       </c>
       <c r="W13" t="n">
-        <v>713.1939657888432</v>
+        <v>1222.771494894278</v>
       </c>
       <c r="X13" t="n">
-        <v>479.1136435718263</v>
+        <v>988.6911726772611</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.1136435718263</v>
+        <v>765.5791114939044</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1415.605310926956</v>
+        <v>1270.701036442455</v>
       </c>
       <c r="C14" t="n">
-        <v>1022.429809429886</v>
+        <v>877.5255349453857</v>
       </c>
       <c r="D14" t="n">
-        <v>636.988680646554</v>
+        <v>492.0844061620535</v>
       </c>
       <c r="E14" t="n">
-        <v>512.8680692096107</v>
+        <v>89.500881278598</v>
       </c>
       <c r="F14" t="n">
-        <v>95.9736307395884</v>
+        <v>89.500881278598</v>
       </c>
       <c r="G14" t="n">
-        <v>95.9736307395884</v>
+        <v>89.500881278598</v>
       </c>
       <c r="H14" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I14" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J14" t="n">
         <v>349.1973608293694</v>
       </c>
       <c r="K14" t="n">
-        <v>460.4337383187916</v>
+        <v>792.5913990714464</v>
       </c>
       <c r="L14" t="n">
-        <v>660.1564914034958</v>
+        <v>988.0557629786524</v>
       </c>
       <c r="M14" t="n">
-        <v>860.9808241441631</v>
+        <v>1188.88009571932</v>
       </c>
       <c r="N14" t="n">
-        <v>1068.053679990192</v>
+        <v>1395.952951565348</v>
       </c>
       <c r="O14" t="n">
-        <v>1254.918786059878</v>
+        <v>1582.818057635035</v>
       </c>
       <c r="P14" t="n">
-        <v>1391.978180255011</v>
+        <v>1719.877451830168</v>
       </c>
       <c r="Q14" t="n">
         <v>1791.491063604352</v>
@@ -5311,19 +5311,19 @@
         <v>1671.195782153852</v>
       </c>
       <c r="U14" t="n">
-        <v>1415.605310926956</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="V14" t="n">
-        <v>1415.605310926956</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="W14" t="n">
-        <v>1415.605310926956</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="X14" t="n">
-        <v>1415.605310926956</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="Y14" t="n">
-        <v>1415.605310926956</v>
+        <v>1671.195782153852</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>493.4994232496586</v>
+        <v>722.895361424467</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4994232496586</v>
+        <v>572.2411309845592</v>
       </c>
       <c r="D15" t="n">
-        <v>493.4994232496586</v>
+        <v>442.1521636060395</v>
       </c>
       <c r="E15" t="n">
-        <v>357.0529323605463</v>
+        <v>305.7056727169272</v>
       </c>
       <c r="F15" t="n">
-        <v>232.6211262436781</v>
+        <v>181.273866600059</v>
       </c>
       <c r="G15" t="n">
-        <v>113.6465066254829</v>
+        <v>62.29924698186385</v>
       </c>
       <c r="H15" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I15" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J15" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K15" t="n">
-        <v>332.4795213379896</v>
+        <v>588.6621519806971</v>
       </c>
       <c r="L15" t="n">
-        <v>474.2568821652546</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M15" t="n">
-        <v>917.6509204073317</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N15" t="n">
-        <v>1109.757906782539</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.055401290526</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P15" t="n">
-        <v>1387.944367813363</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q15" t="n">
         <v>1748.895481510255</v>
@@ -5384,25 +5384,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S15" t="n">
-        <v>1791.491063604352</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T15" t="n">
-        <v>1676.566048456451</v>
+        <v>1504.107768077834</v>
       </c>
       <c r="U15" t="n">
-        <v>1466.574299760747</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V15" t="n">
-        <v>1244.034298131814</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="W15" t="n">
-        <v>1013.917052265101</v>
+        <v>1063.998773515417</v>
       </c>
       <c r="X15" t="n">
-        <v>824.6099746151126</v>
+        <v>874.6916958654283</v>
       </c>
       <c r="Y15" t="n">
-        <v>645.2957576906199</v>
+        <v>874.6916958654283</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>206.0349392060978</v>
+        <v>467.3281956209495</v>
       </c>
       <c r="C16" t="n">
-        <v>35.82982127208704</v>
+        <v>297.1230776869387</v>
       </c>
       <c r="D16" t="n">
-        <v>35.82982127208704</v>
+        <v>297.1230776869387</v>
       </c>
       <c r="E16" t="n">
-        <v>35.82982127208704</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="F16" t="n">
-        <v>35.82982127208704</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="G16" t="n">
-        <v>35.82982127208704</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="H16" t="n">
-        <v>35.82982127208704</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="I16" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J16" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894682</v>
       </c>
       <c r="K16" t="n">
-        <v>254.5315649273077</v>
+        <v>254.5315649273073</v>
       </c>
       <c r="L16" t="n">
-        <v>551.2290272394001</v>
+        <v>551.2290272393997</v>
       </c>
       <c r="M16" t="n">
-        <v>877.2968956781581</v>
+        <v>877.2968956781576</v>
       </c>
       <c r="N16" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O16" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P16" t="n">
-        <v>1713.402080241571</v>
+        <v>1713.40208024157</v>
       </c>
       <c r="Q16" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="R16" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225302</v>
       </c>
       <c r="S16" t="n">
-        <v>1680.88568398201</v>
+        <v>1678.448166422698</v>
       </c>
       <c r="T16" t="n">
-        <v>1449.053932970005</v>
+        <v>1678.448166422698</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.664766328754</v>
+        <v>1393.058999781447</v>
       </c>
       <c r="V16" t="n">
-        <v>897.6854211495781</v>
+        <v>1393.058999781447</v>
       </c>
       <c r="W16" t="n">
-        <v>614.3550190807557</v>
+        <v>1109.728597712624</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3550190807557</v>
+        <v>875.6482754956074</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.2429578973991</v>
+        <v>652.5362143122508</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1227.314043308666</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="C17" t="n">
-        <v>1227.314043308666</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="D17" t="n">
-        <v>1227.314043308666</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="E17" t="n">
-        <v>1227.314043308666</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="F17" t="n">
-        <v>810.4196048386441</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="G17" t="n">
-        <v>399.2850785579561</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="H17" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I17" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J17" t="n">
-        <v>221.9845632441626</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K17" t="n">
-        <v>333.2209407335848</v>
+        <v>738.437530095959</v>
       </c>
       <c r="L17" t="n">
-        <v>495.2056484102133</v>
+        <v>900.4222377725876</v>
       </c>
       <c r="M17" t="n">
-        <v>696.0299811508805</v>
+        <v>1101.246570513255</v>
       </c>
       <c r="N17" t="n">
-        <v>1139.424019392958</v>
+        <v>1308.319426359283</v>
       </c>
       <c r="O17" t="n">
-        <v>1582.818057635035</v>
+        <v>1495.18453242897</v>
       </c>
       <c r="P17" t="n">
-        <v>1719.877451830168</v>
+        <v>1632.243926624103</v>
       </c>
       <c r="Q17" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R17" t="n">
         <v>1791.491063604352</v>
@@ -5545,22 +5545,22 @@
         <v>1671.195782153852</v>
       </c>
       <c r="T17" t="n">
-        <v>1671.195782153852</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="U17" t="n">
-        <v>1671.195782153852</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="V17" t="n">
-        <v>1627.808789020063</v>
+        <v>858.876472649945</v>
       </c>
       <c r="W17" t="n">
-        <v>1627.808789020063</v>
+        <v>487.8774376182324</v>
       </c>
       <c r="X17" t="n">
-        <v>1627.808789020063</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="Y17" t="n">
-        <v>1627.808789020063</v>
+        <v>339.1412690904548</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>656.1777202520759</v>
+        <v>465.0435765421362</v>
       </c>
       <c r="C18" t="n">
-        <v>505.5234898121681</v>
+        <v>314.3893461022284</v>
       </c>
       <c r="D18" t="n">
-        <v>505.5234898121681</v>
+        <v>184.3003787237088</v>
       </c>
       <c r="E18" t="n">
-        <v>369.0769989230558</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="F18" t="n">
-        <v>244.6451928061876</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="G18" t="n">
-        <v>125.6705731879924</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="H18" t="n">
-        <v>47.85388783459651</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="I18" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J18" t="n">
         <v>249.431949475221</v>
@@ -5600,19 +5600,19 @@
         <v>332.4795213379896</v>
       </c>
       <c r="L18" t="n">
-        <v>775.8735595800667</v>
+        <v>773.035094902059</v>
       </c>
       <c r="M18" t="n">
-        <v>1024.220863405735</v>
+        <v>951.0645520933598</v>
       </c>
       <c r="N18" t="n">
-        <v>1467.614901647813</v>
+        <v>1143.171538468567</v>
       </c>
       <c r="O18" t="n">
-        <v>1628.9123961558</v>
+        <v>1304.469032976554</v>
       </c>
       <c r="P18" t="n">
-        <v>1745.801362678636</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q18" t="n">
         <v>1791.491063604352</v>
@@ -5621,25 +5621,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S18" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T18" t="n">
-        <v>1676.717469147192</v>
+        <v>1648.110201748929</v>
       </c>
       <c r="U18" t="n">
-        <v>1629.252596763164</v>
+        <v>1438.118453053225</v>
       </c>
       <c r="V18" t="n">
-        <v>1406.712595134231</v>
+        <v>1215.578451424292</v>
       </c>
       <c r="W18" t="n">
-        <v>1176.595349267518</v>
+        <v>985.4612055575785</v>
       </c>
       <c r="X18" t="n">
-        <v>987.28827161753</v>
+        <v>796.1541279075902</v>
       </c>
       <c r="Y18" t="n">
-        <v>807.9740546930373</v>
+        <v>616.8399109830975</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.4849752594599</v>
+        <v>730.2980515161596</v>
       </c>
       <c r="C19" t="n">
-        <v>446.2798573254491</v>
+        <v>560.0929335821488</v>
       </c>
       <c r="D19" t="n">
-        <v>446.2798573254491</v>
+        <v>560.0929335821488</v>
       </c>
       <c r="E19" t="n">
-        <v>446.2798573254491</v>
+        <v>404.5341214413513</v>
       </c>
       <c r="F19" t="n">
-        <v>288.9539225384221</v>
+        <v>247.2081866543243</v>
       </c>
       <c r="G19" t="n">
-        <v>288.9539225384221</v>
+        <v>79.86392656264994</v>
       </c>
       <c r="H19" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I19" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J19" t="n">
-        <v>69.09848475894704</v>
+        <v>69.09848475894702</v>
       </c>
       <c r="K19" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L19" t="n">
         <v>551.2290272393999</v>
@@ -5697,28 +5697,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R19" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S19" t="n">
-        <v>1521.53685324079</v>
+        <v>1604.53020461984</v>
       </c>
       <c r="T19" t="n">
-        <v>1289.705102228785</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="U19" t="n">
-        <v>1004.315935587534</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="V19" t="n">
-        <v>1004.315935587534</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="W19" t="n">
-        <v>1004.315935587534</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="X19" t="n">
-        <v>770.2356133705171</v>
+        <v>1138.618131390818</v>
       </c>
       <c r="Y19" t="n">
-        <v>770.2356133705171</v>
+        <v>915.5060702074609</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>900.2836585173459</v>
+        <v>440.5316418477697</v>
       </c>
       <c r="C20" t="n">
-        <v>507.1081570202764</v>
+        <v>440.5316418477697</v>
       </c>
       <c r="D20" t="n">
-        <v>507.1081570202764</v>
+        <v>440.5316418477697</v>
       </c>
       <c r="E20" t="n">
-        <v>507.1081570202764</v>
+        <v>440.5316418477697</v>
       </c>
       <c r="F20" t="n">
-        <v>507.1081570202764</v>
+        <v>440.5316418477697</v>
       </c>
       <c r="G20" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="H20" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="I20" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="J20" t="n">
         <v>349.1973608293694</v>
@@ -5761,43 +5761,43 @@
         <v>622.4184459954201</v>
       </c>
       <c r="M20" t="n">
-        <v>952.5589133232709</v>
+        <v>823.2427787360873</v>
       </c>
       <c r="N20" t="n">
-        <v>1395.952951565348</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O20" t="n">
-        <v>1582.818057635035</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P20" t="n">
-        <v>1719.877451830168</v>
+        <v>1391.97818025501</v>
       </c>
       <c r="Q20" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="R20" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="S20" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153851</v>
       </c>
       <c r="T20" t="n">
-        <v>1791.491063604352</v>
+        <v>1456.573753173322</v>
       </c>
       <c r="U20" t="n">
-        <v>1535.900592377455</v>
+        <v>1200.983281946425</v>
       </c>
       <c r="V20" t="n">
-        <v>1296.774367596745</v>
+        <v>1200.983281946425</v>
       </c>
       <c r="W20" t="n">
-        <v>1296.774367596745</v>
+        <v>829.9842469147129</v>
       </c>
       <c r="X20" t="n">
-        <v>1296.774367596745</v>
+        <v>440.5316418477697</v>
       </c>
       <c r="Y20" t="n">
-        <v>900.2836585173459</v>
+        <v>440.5316418477697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>656.1777202520759</v>
+        <v>321.0411428710401</v>
       </c>
       <c r="C21" t="n">
-        <v>505.5234898121681</v>
+        <v>170.3869124311323</v>
       </c>
       <c r="D21" t="n">
-        <v>505.5234898121681</v>
+        <v>47.85388783459648</v>
       </c>
       <c r="E21" t="n">
-        <v>369.0769989230558</v>
+        <v>47.85388783459648</v>
       </c>
       <c r="F21" t="n">
-        <v>244.6451928061876</v>
+        <v>47.85388783459648</v>
       </c>
       <c r="G21" t="n">
-        <v>125.6705731879924</v>
+        <v>47.85388783459648</v>
       </c>
       <c r="H21" t="n">
-        <v>47.85388783459651</v>
+        <v>47.85388783459648</v>
       </c>
       <c r="I21" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="J21" t="n">
-        <v>249.431949475221</v>
+        <v>249.4319494752209</v>
       </c>
       <c r="K21" t="n">
-        <v>332.4795213379896</v>
+        <v>631.2577340747929</v>
       </c>
       <c r="L21" t="n">
-        <v>474.2568821652545</v>
+        <v>773.0350949020578</v>
       </c>
       <c r="M21" t="n">
-        <v>917.6509204073316</v>
+        <v>951.0645520933587</v>
       </c>
       <c r="N21" t="n">
-        <v>1109.757906782539</v>
+        <v>1143.171538468566</v>
       </c>
       <c r="O21" t="n">
-        <v>1304.469032976554</v>
+        <v>1304.469032976553</v>
       </c>
       <c r="P21" t="n">
-        <v>1421.357999499391</v>
+        <v>1421.35799949939</v>
       </c>
       <c r="Q21" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="R21" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="S21" t="n">
-        <v>1676.717469147192</v>
+        <v>1676.717469147191</v>
       </c>
       <c r="T21" t="n">
-        <v>1504.107768077834</v>
+        <v>1504.107768077833</v>
       </c>
       <c r="U21" t="n">
-        <v>1294.11601938213</v>
+        <v>1294.116019382129</v>
       </c>
       <c r="V21" t="n">
-        <v>1071.576017753197</v>
+        <v>1071.576017753196</v>
       </c>
       <c r="W21" t="n">
-        <v>841.4587718864839</v>
+        <v>841.4587718864825</v>
       </c>
       <c r="X21" t="n">
-        <v>656.1777202520759</v>
+        <v>652.1516942364942</v>
       </c>
       <c r="Y21" t="n">
-        <v>656.1777202520759</v>
+        <v>472.8374773120015</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.1219230961059</v>
+        <v>206.0349392060978</v>
       </c>
       <c r="C22" t="n">
-        <v>636.1219230961059</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="D22" t="n">
-        <v>507.8896731430693</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="E22" t="n">
-        <v>507.8896731430693</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="F22" t="n">
-        <v>350.5637383560422</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="G22" t="n">
-        <v>183.2194782643679</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="H22" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="I22" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208701</v>
       </c>
       <c r="J22" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894701</v>
       </c>
       <c r="K22" t="n">
         <v>254.5315649273075</v>
@@ -5919,16 +5919,16 @@
         <v>551.2290272393998</v>
       </c>
       <c r="M22" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781577</v>
       </c>
       <c r="N22" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O22" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P22" t="n">
-        <v>1713.402080241571</v>
+        <v>1713.40208024157</v>
       </c>
       <c r="Q22" t="n">
         <v>1791.491063604352</v>
@@ -5943,19 +5943,19 @@
         <v>1372.698453607834</v>
       </c>
       <c r="U22" t="n">
-        <v>1087.309286966583</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="V22" t="n">
-        <v>821.3299417874072</v>
+        <v>1106.719108428658</v>
       </c>
       <c r="W22" t="n">
-        <v>821.3299417874072</v>
+        <v>823.3887063598359</v>
       </c>
       <c r="X22" t="n">
-        <v>821.3299417874072</v>
+        <v>589.3083841428189</v>
       </c>
       <c r="Y22" t="n">
-        <v>821.3299417874072</v>
+        <v>366.1963229594622</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>366.6671030506178</v>
+        <v>1406.545901962182</v>
       </c>
       <c r="C23" t="n">
-        <v>366.6671030506178</v>
+        <v>1406.545901962182</v>
       </c>
       <c r="D23" t="n">
-        <v>366.6671030506178</v>
+        <v>1406.545901962182</v>
       </c>
       <c r="E23" t="n">
-        <v>366.6671030506178</v>
+        <v>1003.962377078726</v>
       </c>
       <c r="F23" t="n">
-        <v>348.6356679630987</v>
+        <v>759.7701942437867</v>
       </c>
       <c r="G23" t="n">
         <v>348.6356679630987</v>
       </c>
       <c r="H23" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I23" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J23" t="n">
-        <v>97.53894723026261</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K23" t="n">
-        <v>612.8288358086871</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L23" t="n">
-        <v>774.8135434853157</v>
+        <v>1030.815361482482</v>
       </c>
       <c r="M23" t="n">
-        <v>1335.700767776362</v>
+        <v>1231.639694223149</v>
       </c>
       <c r="N23" t="n">
-        <v>1542.77362362239</v>
+        <v>1438.712550069177</v>
       </c>
       <c r="O23" t="n">
-        <v>1729.638729692077</v>
+        <v>1625.577656138864</v>
       </c>
       <c r="P23" t="n">
         <v>1866.69812388721</v>
       </c>
       <c r="Q23" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="R23" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S23" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="T23" t="n">
-        <v>2266.211007236551</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="U23" t="n">
-        <v>2266.211007236551</v>
+        <v>1795.998507029125</v>
       </c>
       <c r="V23" t="n">
-        <v>1924.104197940069</v>
+        <v>1795.998507029125</v>
       </c>
       <c r="W23" t="n">
-        <v>1553.105162908357</v>
+        <v>1795.998507029125</v>
       </c>
       <c r="X23" t="n">
-        <v>1163.652557841413</v>
+        <v>1406.545901962182</v>
       </c>
       <c r="Y23" t="n">
-        <v>767.1618487620146</v>
+        <v>1406.545901962182</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>795.7610865032402</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C24" t="n">
-        <v>645.1068560633323</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D24" t="n">
-        <v>515.0178886848128</v>
+        <v>515.0178886848122</v>
       </c>
       <c r="E24" t="n">
-        <v>378.5713977957005</v>
+        <v>378.5713977956999</v>
       </c>
       <c r="F24" t="n">
-        <v>254.1395916788322</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G24" t="n">
-        <v>135.164972060637</v>
+        <v>135.1649720606365</v>
       </c>
       <c r="H24" t="n">
         <v>57.34828670724073</v>
       </c>
       <c r="I24" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J24" t="n">
-        <v>64.19135336813757</v>
+        <v>258.9263483478649</v>
       </c>
       <c r="K24" t="n">
-        <v>147.2389252309062</v>
+        <v>750.41403225286</v>
       </c>
       <c r="L24" t="n">
-        <v>708.1261495219526</v>
+        <v>892.191393080125</v>
       </c>
       <c r="M24" t="n">
-        <v>886.1556067132533</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N24" t="n">
-        <v>1447.0428310043</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O24" t="n">
-        <v>1736.593394514657</v>
+        <v>1423.62533115462</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.482361037493</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q24" t="n">
-        <v>2223.615425142454</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R24" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S24" t="n">
         <v>2151.437412779391</v>
       </c>
       <c r="T24" t="n">
-        <v>1978.827711710033</v>
+        <v>1978.827711710032</v>
       </c>
       <c r="U24" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V24" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W24" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X24" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y24" t="n">
-        <v>947.5574209442016</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.5349684878499</v>
+        <v>324.3818774078723</v>
       </c>
       <c r="C25" t="n">
-        <v>696.3298505538392</v>
+        <v>212.6684802364053</v>
       </c>
       <c r="D25" t="n">
-        <v>540.696737456354</v>
+        <v>212.6684802364053</v>
       </c>
       <c r="E25" t="n">
-        <v>385.1379253155565</v>
+        <v>212.6684802364053</v>
       </c>
       <c r="F25" t="n">
-        <v>298.4483214110661</v>
+        <v>212.6684802364053</v>
       </c>
       <c r="G25" t="n">
-        <v>298.4483214110661</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I25" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J25" t="n">
         <v>78.59288363159101</v>
@@ -6174,25 +6174,25 @@
         <v>1800.985462476996</v>
       </c>
       <c r="S25" t="n">
-        <v>1800.985462476996</v>
+        <v>1614.024603492483</v>
       </c>
       <c r="T25" t="n">
-        <v>1569.15371146499</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="U25" t="n">
-        <v>1569.15371146499</v>
+        <v>1096.803685839227</v>
       </c>
       <c r="V25" t="n">
-        <v>1569.15371146499</v>
+        <v>830.8243406600512</v>
       </c>
       <c r="W25" t="n">
-        <v>1285.823309396168</v>
+        <v>547.4939385912289</v>
       </c>
       <c r="X25" t="n">
-        <v>1051.742987179151</v>
+        <v>547.4939385912289</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.742987179151</v>
+        <v>324.3818774078723</v>
       </c>
     </row>
     <row r="26">
@@ -6223,46 +6223,46 @@
         <v>105.4680296122324</v>
       </c>
       <c r="I26" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J26" t="n">
         <v>358.6917597020133</v>
       </c>
       <c r="K26" t="n">
-        <v>469.9281371914356</v>
+        <v>919.5789839930595</v>
       </c>
       <c r="L26" t="n">
-        <v>664.9257582935791</v>
+        <v>1108.961338165834</v>
       </c>
       <c r="M26" t="n">
-        <v>865.7500910342462</v>
+        <v>1309.785670906501</v>
       </c>
       <c r="N26" t="n">
-        <v>1072.822946880275</v>
+        <v>1870.672895197547</v>
       </c>
       <c r="O26" t="n">
-        <v>1633.710171171321</v>
+        <v>2057.538001267234</v>
       </c>
       <c r="P26" t="n">
         <v>2194.597395462367</v>
       </c>
       <c r="Q26" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="R26" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S26" t="n">
-        <v>2145.915725786052</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="T26" t="n">
-        <v>1931.293696805523</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="U26" t="n">
-        <v>1675.703225578626</v>
+        <v>2010.391002096479</v>
       </c>
       <c r="V26" t="n">
-        <v>1639.391967064766</v>
+        <v>2010.391002096479</v>
       </c>
       <c r="W26" t="n">
         <v>1639.391967064766</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.7610865032404</v>
+        <v>795.7610865032395</v>
       </c>
       <c r="C27" t="n">
-        <v>645.1068560633327</v>
+        <v>645.1068560633317</v>
       </c>
       <c r="D27" t="n">
-        <v>515.017888684813</v>
+        <v>515.0178886848121</v>
       </c>
       <c r="E27" t="n">
-        <v>378.5713977957007</v>
+        <v>378.5713977956997</v>
       </c>
       <c r="F27" t="n">
-        <v>254.1395916788325</v>
+        <v>254.1395916788316</v>
       </c>
       <c r="G27" t="n">
-        <v>135.1649720606374</v>
+        <v>135.1649720606364</v>
       </c>
       <c r="H27" t="n">
-        <v>57.34828670724146</v>
+        <v>57.34828670724048</v>
       </c>
       <c r="I27" t="n">
-        <v>45.32422014473199</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J27" t="n">
-        <v>258.9263483478659</v>
+        <v>258.9263483478649</v>
       </c>
       <c r="K27" t="n">
-        <v>341.9739202106346</v>
+        <v>750.41403225286</v>
       </c>
       <c r="L27" t="n">
-        <v>686.014832068138</v>
+        <v>892.191393080125</v>
       </c>
       <c r="M27" t="n">
-        <v>864.0442892594389</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.151275634646</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O27" t="n">
-        <v>1617.038499925692</v>
+        <v>1423.62533115462</v>
       </c>
       <c r="P27" t="n">
-        <v>2177.925724216739</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q27" t="n">
-        <v>2223.615425142454</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R27" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S27" t="n">
-        <v>2151.437412779391</v>
+        <v>2151.43741277939</v>
       </c>
       <c r="T27" t="n">
-        <v>1978.827711710033</v>
+        <v>1978.827711710032</v>
       </c>
       <c r="U27" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V27" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W27" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X27" t="n">
-        <v>1126.871637868695</v>
+        <v>1126.871637868694</v>
       </c>
       <c r="Y27" t="n">
-        <v>947.5574209442018</v>
+        <v>947.5574209442009</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>998.7811151880067</v>
+        <v>139.173858716571</v>
       </c>
       <c r="C28" t="n">
-        <v>828.5759972539959</v>
+        <v>139.173858716571</v>
       </c>
       <c r="D28" t="n">
-        <v>672.9428841565107</v>
+        <v>139.173858716571</v>
       </c>
       <c r="E28" t="n">
-        <v>517.3840720157132</v>
+        <v>139.173858716571</v>
       </c>
       <c r="F28" t="n">
-        <v>360.0581372286862</v>
+        <v>139.173858716571</v>
       </c>
       <c r="G28" t="n">
-        <v>192.7138771370119</v>
+        <v>139.173858716571</v>
       </c>
       <c r="H28" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I28" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J28" t="n">
         <v>78.59288363159101</v>
@@ -6411,25 +6411,25 @@
         <v>1800.985462476996</v>
       </c>
       <c r="S28" t="n">
-        <v>1800.985462476996</v>
+        <v>1614.024603492483</v>
       </c>
       <c r="T28" t="n">
-        <v>1800.985462476996</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="U28" t="n">
-        <v>1800.985462476996</v>
+        <v>1096.803685839227</v>
       </c>
       <c r="V28" t="n">
-        <v>1535.00611729782</v>
+        <v>830.8243406600512</v>
       </c>
       <c r="W28" t="n">
-        <v>1251.675715228997</v>
+        <v>547.4939385912289</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.675715228997</v>
+        <v>547.4939385912289</v>
       </c>
       <c r="Y28" t="n">
-        <v>1028.563654045641</v>
+        <v>324.3818774078723</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>438.4997216418004</v>
+        <v>1469.225552445755</v>
       </c>
       <c r="C29" t="n">
-        <v>45.32422014473102</v>
+        <v>1076.050050948685</v>
       </c>
       <c r="D29" t="n">
-        <v>45.32422014473102</v>
+        <v>1076.050050948685</v>
       </c>
       <c r="E29" t="n">
-        <v>45.32422014473102</v>
+        <v>673.4665260652296</v>
       </c>
       <c r="F29" t="n">
-        <v>45.32422014473102</v>
+        <v>408.7794774306001</v>
       </c>
       <c r="G29" t="n">
-        <v>45.32422014473102</v>
+        <v>408.7794774306001</v>
       </c>
       <c r="H29" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I29" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J29" t="n">
-        <v>97.53894723026261</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K29" t="n">
-        <v>208.7753247196848</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L29" t="n">
-        <v>769.6625490107311</v>
+        <v>631.9128448680641</v>
       </c>
       <c r="M29" t="n">
-        <v>970.4868817513984</v>
+        <v>832.7371776087314</v>
       </c>
       <c r="N29" t="n">
-        <v>1531.374106042445</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O29" t="n">
-        <v>1729.638729692077</v>
+        <v>1226.675139524446</v>
       </c>
       <c r="P29" t="n">
-        <v>1866.69812388721</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q29" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R29" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S29" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="T29" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="U29" t="n">
-        <v>2010.620536009654</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="V29" t="n">
-        <v>1668.513726713173</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="W29" t="n">
-        <v>1297.51469168146</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="X29" t="n">
-        <v>908.0620866145169</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.5713775351181</v>
+        <v>1869.720298157152</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>57.34828670724048</v>
       </c>
       <c r="I30" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J30" t="n">
-        <v>64.19135336813757</v>
+        <v>258.9263483478649</v>
       </c>
       <c r="K30" t="n">
-        <v>147.2389252309062</v>
+        <v>750.41403225286</v>
       </c>
       <c r="L30" t="n">
-        <v>289.0162860581711</v>
+        <v>892.191393080125</v>
       </c>
       <c r="M30" t="n">
-        <v>849.9035103492174</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N30" t="n">
-        <v>1410.790734640264</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O30" t="n">
-        <v>1971.67795893131</v>
+        <v>1423.62533115462</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.566925454147</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q30" t="n">
-        <v>2266.21100723655</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R30" t="n">
         <v>2266.21100723655</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.6080424444704</v>
+        <v>411.535999751733</v>
       </c>
       <c r="C31" t="n">
-        <v>318.4029245104596</v>
+        <v>241.3308818177222</v>
       </c>
       <c r="D31" t="n">
-        <v>318.4029245104596</v>
+        <v>85.69776872023698</v>
       </c>
       <c r="E31" t="n">
-        <v>318.4029245104596</v>
+        <v>85.69776872023698</v>
       </c>
       <c r="F31" t="n">
-        <v>318.4029245104596</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="G31" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="H31" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I31" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J31" t="n">
         <v>78.59288363159101</v>
@@ -6660,13 +6660,13 @@
         <v>830.8243406600512</v>
       </c>
       <c r="W31" t="n">
-        <v>547.4939385912289</v>
+        <v>830.8243406600512</v>
       </c>
       <c r="X31" t="n">
-        <v>488.6080424444704</v>
+        <v>596.7440184430343</v>
       </c>
       <c r="Y31" t="n">
-        <v>488.6080424444704</v>
+        <v>596.7440184430343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>566.1066721710329</v>
+        <v>635.0521212190727</v>
       </c>
       <c r="C32" t="n">
-        <v>566.1066721710329</v>
+        <v>635.0521212190727</v>
       </c>
       <c r="D32" t="n">
-        <v>566.1066721710329</v>
+        <v>408.7794774306001</v>
       </c>
       <c r="E32" t="n">
-        <v>516.6025558929203</v>
+        <v>408.7794774306001</v>
       </c>
       <c r="F32" t="n">
-        <v>516.6025558929203</v>
+        <v>408.7794774306001</v>
       </c>
       <c r="G32" t="n">
-        <v>105.4680296122324</v>
+        <v>408.7794774306001</v>
       </c>
       <c r="H32" t="n">
         <v>105.4680296122324</v>
@@ -6700,25 +6700,25 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J32" t="n">
-        <v>97.53894723026261</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K32" t="n">
-        <v>208.7753247196848</v>
+        <v>527.8663640984457</v>
       </c>
       <c r="L32" t="n">
-        <v>370.7600323963134</v>
+        <v>1088.753588389492</v>
       </c>
       <c r="M32" t="n">
-        <v>571.5843651369805</v>
+        <v>1289.577921130159</v>
       </c>
       <c r="N32" t="n">
-        <v>778.657220983009</v>
+        <v>1496.650776976188</v>
       </c>
       <c r="O32" t="n">
-        <v>1305.810899596164</v>
+        <v>2057.538001267234</v>
       </c>
       <c r="P32" t="n">
-        <v>1866.69812388721</v>
+        <v>2194.597395462367</v>
       </c>
       <c r="Q32" t="n">
         <v>2266.211007236551</v>
@@ -6727,25 +6727,25 @@
         <v>2266.211007236551</v>
       </c>
       <c r="S32" t="n">
-        <v>2145.915725786052</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="T32" t="n">
-        <v>1931.293696805523</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="U32" t="n">
-        <v>1675.703225578626</v>
+        <v>1795.998507029125</v>
       </c>
       <c r="V32" t="n">
-        <v>1333.596416282144</v>
+        <v>1795.998507029125</v>
       </c>
       <c r="W32" t="n">
-        <v>962.5973812504317</v>
+        <v>1424.999471997413</v>
       </c>
       <c r="X32" t="n">
-        <v>962.5973812504317</v>
+        <v>1035.54686693047</v>
       </c>
       <c r="Y32" t="n">
-        <v>566.1066721710329</v>
+        <v>1035.54686693047</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.7610865032402</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C33" t="n">
-        <v>645.1068560633323</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D33" t="n">
-        <v>515.0178886848128</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E33" t="n">
-        <v>378.5713977957005</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F33" t="n">
-        <v>254.1395916788322</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G33" t="n">
-        <v>135.164972060637</v>
+        <v>135.1649720606367</v>
       </c>
       <c r="H33" t="n">
-        <v>57.34828670724073</v>
+        <v>57.34828670724049</v>
       </c>
       <c r="I33" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J33" t="n">
-        <v>64.19135336813757</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K33" t="n">
-        <v>555.6790372731326</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L33" t="n">
-        <v>1116.566261564179</v>
+        <v>892.1913930801251</v>
       </c>
       <c r="M33" t="n">
-        <v>1294.59571875548</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.702705130687</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O33" t="n">
-        <v>1659.634082019789</v>
+        <v>1423.62533115462</v>
       </c>
       <c r="P33" t="n">
-        <v>2220.521306310835</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q33" t="n">
-        <v>2266.211007236551</v>
+        <v>2223.615425142454</v>
       </c>
       <c r="R33" t="n">
         <v>2266.211007236551</v>
@@ -6812,19 +6812,19 @@
         <v>1978.827711710033</v>
       </c>
       <c r="U33" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V33" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W33" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X33" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y33" t="n">
-        <v>947.5574209442016</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1412.415169434589</v>
+        <v>681.186340261715</v>
       </c>
       <c r="C34" t="n">
-        <v>1242.210051500578</v>
+        <v>681.186340261715</v>
       </c>
       <c r="D34" t="n">
-        <v>1086.576938403093</v>
+        <v>525.5532271642298</v>
       </c>
       <c r="E34" t="n">
-        <v>931.0181262622957</v>
+        <v>369.9944150234324</v>
       </c>
       <c r="F34" t="n">
-        <v>931.0181262622957</v>
+        <v>212.6684802364053</v>
       </c>
       <c r="G34" t="n">
-        <v>763.6738661706214</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H34" t="n">
-        <v>616.2842091783406</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I34" t="n">
-        <v>510.5497649042864</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J34" t="n">
-        <v>543.8184283911464</v>
+        <v>78.59288363159101</v>
       </c>
       <c r="K34" t="n">
-        <v>729.2515085595069</v>
+        <v>264.0259637999515</v>
       </c>
       <c r="L34" t="n">
-        <v>1025.948970871599</v>
+        <v>560.7234261120439</v>
       </c>
       <c r="M34" t="n">
-        <v>1352.016839310357</v>
+        <v>886.7912945508018</v>
       </c>
       <c r="N34" t="n">
-        <v>1671.65919567884</v>
+        <v>1206.433650919285</v>
       </c>
       <c r="O34" t="n">
-        <v>1960.40013731212</v>
+        <v>1495.174592552565</v>
       </c>
       <c r="P34" t="n">
-        <v>2188.12202387377</v>
+        <v>1722.896479114214</v>
       </c>
       <c r="Q34" t="n">
-        <v>2266.211007236551</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="R34" t="n">
-        <v>2183.217655857502</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S34" t="n">
-        <v>1996.256796872989</v>
+        <v>1614.024603492483</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.425045860984</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.745571503412</v>
+        <v>1170.277746624247</v>
       </c>
       <c r="V34" t="n">
-        <v>1695.745571503412</v>
+        <v>904.2984014450717</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.415169434589</v>
+        <v>904.2984014450717</v>
       </c>
       <c r="X34" t="n">
-        <v>1412.415169434589</v>
+        <v>904.2984014450717</v>
       </c>
       <c r="Y34" t="n">
-        <v>1412.415169434589</v>
+        <v>681.186340261715</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1240.748913408897</v>
+        <v>885.2524680075105</v>
       </c>
       <c r="C35" t="n">
-        <v>1240.748913408897</v>
+        <v>492.0769665104411</v>
       </c>
       <c r="D35" t="n">
-        <v>855.3077846255648</v>
+        <v>492.0769665104411</v>
       </c>
       <c r="E35" t="n">
-        <v>452.7242597421093</v>
+        <v>89.4934416269856</v>
       </c>
       <c r="F35" t="n">
-        <v>35.82982127208703</v>
+        <v>89.4934416269856</v>
       </c>
       <c r="G35" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H35" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I35" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J35" t="n">
-        <v>88.04454835761862</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K35" t="n">
-        <v>199.2809258470408</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L35" t="n">
-        <v>361.2656335236694</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M35" t="n">
-        <v>804.6596717657465</v>
+        <v>823.2427787360873</v>
       </c>
       <c r="N35" t="n">
-        <v>1051.790494186893</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O35" t="n">
-        <v>1495.18453242897</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.243926624103</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q35" t="n">
-        <v>1703.857538398287</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R35" t="n">
         <v>1791.491063604352</v>
@@ -6967,22 +6967,22 @@
         <v>1671.195782153852</v>
       </c>
       <c r="T35" t="n">
-        <v>1641.243659120294</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U35" t="n">
-        <v>1641.243659120294</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="V35" t="n">
-        <v>1641.243659120294</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="W35" t="n">
-        <v>1641.243659120294</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="X35" t="n">
-        <v>1641.243659120294</v>
+        <v>1281.743177086909</v>
       </c>
       <c r="Y35" t="n">
-        <v>1641.243659120294</v>
+        <v>885.2524680075105</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>357.0529323605463</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="C36" t="n">
-        <v>357.0529323605463</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="D36" t="n">
-        <v>357.0529323605463</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="E36" t="n">
-        <v>357.0529323605463</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="F36" t="n">
-        <v>232.6211262436781</v>
+        <v>244.6451928061876</v>
       </c>
       <c r="G36" t="n">
-        <v>113.6465066254829</v>
+        <v>125.6705731879924</v>
       </c>
       <c r="H36" t="n">
-        <v>35.82982127208703</v>
+        <v>47.85388783459651</v>
       </c>
       <c r="I36" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J36" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K36" t="n">
-        <v>631.257734074794</v>
+        <v>588.6621519806973</v>
       </c>
       <c r="L36" t="n">
-        <v>773.035094902059</v>
+        <v>730.4395128079623</v>
       </c>
       <c r="M36" t="n">
-        <v>951.0645520933598</v>
+        <v>908.4689699992631</v>
       </c>
       <c r="N36" t="n">
-        <v>1143.171538468567</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O36" t="n">
-        <v>1304.469032976554</v>
+        <v>1261.873450882458</v>
       </c>
       <c r="P36" t="n">
-        <v>1421.357999499391</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q36" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R36" t="n">
         <v>1791.491063604352</v>
@@ -7055,13 +7055,13 @@
         <v>1071.576017753197</v>
       </c>
       <c r="W36" t="n">
-        <v>841.4587718864836</v>
+        <v>841.4587718864839</v>
       </c>
       <c r="X36" t="n">
-        <v>652.1516942364954</v>
+        <v>652.1516942364956</v>
       </c>
       <c r="Y36" t="n">
-        <v>508.8492668015077</v>
+        <v>472.8374773120028</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>611.9312957275815</v>
+        <v>641.9670473240481</v>
       </c>
       <c r="C37" t="n">
-        <v>611.9312957275815</v>
+        <v>641.9670473240481</v>
       </c>
       <c r="D37" t="n">
-        <v>456.2981826300963</v>
+        <v>486.3339342265628</v>
       </c>
       <c r="E37" t="n">
-        <v>456.2981826300963</v>
+        <v>486.3339342265628</v>
       </c>
       <c r="F37" t="n">
-        <v>456.2981826300963</v>
+        <v>456.2981826300964</v>
       </c>
       <c r="G37" t="n">
-        <v>288.953922538422</v>
+        <v>288.9539225384221</v>
       </c>
       <c r="H37" t="n">
         <v>141.5642655461412</v>
       </c>
       <c r="I37" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J37" t="n">
-        <v>69.09848475894702</v>
+        <v>69.09848475894705</v>
       </c>
       <c r="K37" t="n">
-        <v>254.5315649273075</v>
+        <v>254.5315649273077</v>
       </c>
       <c r="L37" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272394</v>
       </c>
       <c r="M37" t="n">
-        <v>877.2968956781579</v>
+        <v>877.296895678158</v>
       </c>
       <c r="N37" t="n">
         <v>1196.939252046641</v>
@@ -7119,28 +7119,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R37" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="S37" t="n">
-        <v>1604.530204619839</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="T37" t="n">
-        <v>1372.698453607834</v>
+        <v>1476.665961213297</v>
       </c>
       <c r="U37" t="n">
-        <v>1372.698453607834</v>
+        <v>1191.276794572046</v>
       </c>
       <c r="V37" t="n">
-        <v>1106.719108428658</v>
+        <v>925.2974493928704</v>
       </c>
       <c r="W37" t="n">
-        <v>1020.251375602239</v>
+        <v>641.9670473240481</v>
       </c>
       <c r="X37" t="n">
-        <v>1020.251375602239</v>
+        <v>641.9670473240481</v>
       </c>
       <c r="Y37" t="n">
-        <v>797.1393144188828</v>
+        <v>641.9670473240481</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>931.8259583299829</v>
+        <v>1249.299914806129</v>
       </c>
       <c r="C38" t="n">
-        <v>931.8259583299829</v>
+        <v>1249.299914806129</v>
       </c>
       <c r="D38" t="n">
         <v>863.8587860227972</v>
@@ -7165,34 +7165,34 @@
         <v>446.964347552775</v>
       </c>
       <c r="G38" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H38" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I38" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J38" t="n">
-        <v>88.04454835761862</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K38" t="n">
-        <v>199.2809258470408</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L38" t="n">
-        <v>361.2656335236694</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M38" t="n">
-        <v>562.0899662643367</v>
+        <v>823.2427787360873</v>
       </c>
       <c r="N38" t="n">
-        <v>769.1628221103651</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O38" t="n">
-        <v>956.0279281800518</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P38" t="n">
-        <v>1399.421966422129</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q38" t="n">
         <v>1791.491063604352</v>
@@ -7207,19 +7207,19 @@
         <v>1576.869034623823</v>
       </c>
       <c r="U38" t="n">
-        <v>1321.278563396926</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="V38" t="n">
-        <v>1321.278563396926</v>
+        <v>1249.299914806129</v>
       </c>
       <c r="W38" t="n">
-        <v>1321.278563396926</v>
+        <v>1249.299914806129</v>
       </c>
       <c r="X38" t="n">
-        <v>931.8259583299829</v>
+        <v>1249.299914806129</v>
       </c>
       <c r="Y38" t="n">
-        <v>931.8259583299829</v>
+        <v>1249.299914806129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>321.0411428710412</v>
+        <v>472.8374773120028</v>
       </c>
       <c r="C39" t="n">
-        <v>170.3869124311335</v>
+        <v>472.8374773120028</v>
       </c>
       <c r="D39" t="n">
-        <v>170.3869124311335</v>
+        <v>342.7485099334831</v>
       </c>
       <c r="E39" t="n">
-        <v>35.82982127208703</v>
+        <v>206.3020190443709</v>
       </c>
       <c r="F39" t="n">
-        <v>35.82982127208703</v>
+        <v>81.87021292750266</v>
       </c>
       <c r="G39" t="n">
-        <v>35.82982127208703</v>
+        <v>47.85388783459651</v>
       </c>
       <c r="H39" t="n">
-        <v>35.82982127208703</v>
+        <v>47.85388783459651</v>
       </c>
       <c r="I39" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J39" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K39" t="n">
-        <v>137.7445263582622</v>
+        <v>588.6621519806973</v>
       </c>
       <c r="L39" t="n">
-        <v>279.5218871855271</v>
+        <v>730.4395128079623</v>
       </c>
       <c r="M39" t="n">
-        <v>457.5513443768279</v>
+        <v>908.4689699992631</v>
       </c>
       <c r="N39" t="n">
-        <v>649.658330752035</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O39" t="n">
-        <v>1093.052368994112</v>
+        <v>1261.873450882458</v>
       </c>
       <c r="P39" t="n">
-        <v>1536.446407236189</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q39" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R39" t="n">
         <v>1791.491063604352</v>
@@ -7292,13 +7292,13 @@
         <v>1071.576017753197</v>
       </c>
       <c r="W39" t="n">
-        <v>841.4587718864836</v>
+        <v>841.4587718864839</v>
       </c>
       <c r="X39" t="n">
-        <v>652.1516942364954</v>
+        <v>652.1516942364956</v>
       </c>
       <c r="Y39" t="n">
-        <v>472.8374773120026</v>
+        <v>472.8374773120028</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>312.6389073302163</v>
+        <v>947.6315035971361</v>
       </c>
       <c r="C40" t="n">
-        <v>312.6389073302163</v>
+        <v>777.4263856631253</v>
       </c>
       <c r="D40" t="n">
-        <v>312.6389073302163</v>
+        <v>621.7932725656401</v>
       </c>
       <c r="E40" t="n">
-        <v>157.0800951894188</v>
+        <v>466.2344604248426</v>
       </c>
       <c r="F40" t="n">
-        <v>141.5642655461412</v>
+        <v>308.9085256378156</v>
       </c>
       <c r="G40" t="n">
         <v>141.5642655461412</v>
@@ -7329,28 +7329,28 @@
         <v>141.5642655461412</v>
       </c>
       <c r="I40" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J40" t="n">
-        <v>69.09848475894682</v>
+        <v>69.09848475894704</v>
       </c>
       <c r="K40" t="n">
-        <v>254.5315649273073</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L40" t="n">
-        <v>551.2290272393997</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M40" t="n">
-        <v>877.2968956781576</v>
+        <v>877.2968956781579</v>
       </c>
       <c r="N40" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O40" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P40" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241571</v>
       </c>
       <c r="Q40" t="n">
         <v>1791.491063604352</v>
@@ -7359,25 +7359,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S40" t="n">
-        <v>1604.530204619839</v>
+        <v>1604.53020461984</v>
       </c>
       <c r="T40" t="n">
-        <v>1604.530204619839</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="U40" t="n">
-        <v>1319.141037978588</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="V40" t="n">
-        <v>1053.161692799412</v>
+        <v>1366.919844505454</v>
       </c>
       <c r="W40" t="n">
-        <v>769.8312907305899</v>
+        <v>1366.919844505454</v>
       </c>
       <c r="X40" t="n">
-        <v>535.750968513573</v>
+        <v>1132.839522288437</v>
       </c>
       <c r="Y40" t="n">
-        <v>312.6389073302163</v>
+        <v>1132.839522288437</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>339.1412690904548</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="C41" t="n">
-        <v>339.1412690904548</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="D41" t="n">
-        <v>339.1412690904548</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="E41" t="n">
-        <v>339.1412690904548</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="F41" t="n">
-        <v>339.1412690904548</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="G41" t="n">
-        <v>339.1412690904548</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="H41" t="n">
-        <v>35.82982127208703</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="I41" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J41" t="n">
-        <v>349.1973608293694</v>
+        <v>88.04454835761862</v>
       </c>
       <c r="K41" t="n">
-        <v>460.4337383187916</v>
+        <v>410.5382585208025</v>
       </c>
       <c r="L41" t="n">
-        <v>622.4184459954201</v>
+        <v>572.5229661974311</v>
       </c>
       <c r="M41" t="n">
-        <v>823.2427787360873</v>
+        <v>773.3472989380983</v>
       </c>
       <c r="N41" t="n">
-        <v>1068.053679990191</v>
+        <v>980.4201547841268</v>
       </c>
       <c r="O41" t="n">
-        <v>1254.918786059878</v>
+        <v>1167.285260853813</v>
       </c>
       <c r="P41" t="n">
-        <v>1391.978180255011</v>
+        <v>1304.344655048947</v>
       </c>
       <c r="Q41" t="n">
-        <v>1791.491063604351</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R41" t="n">
-        <v>1791.491063604351</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S41" t="n">
-        <v>1791.491063604351</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T41" t="n">
-        <v>1791.491063604351</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="U41" t="n">
-        <v>1791.491063604351</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="V41" t="n">
-        <v>1449.38425430787</v>
+        <v>858.8764726499452</v>
       </c>
       <c r="W41" t="n">
-        <v>1125.084583236797</v>
+        <v>788.7376836248993</v>
       </c>
       <c r="X41" t="n">
-        <v>735.6319781698537</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.1412690904548</v>
+        <v>399.2850785579561</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>766.9252886936547</v>
+        <v>435.8147373282011</v>
       </c>
       <c r="C42" t="n">
-        <v>616.2710582537469</v>
+        <v>285.1605068882933</v>
       </c>
       <c r="D42" t="n">
-        <v>505.5234898121681</v>
+        <v>285.1605068882933</v>
       </c>
       <c r="E42" t="n">
-        <v>369.0769989230558</v>
+        <v>285.1605068882933</v>
       </c>
       <c r="F42" t="n">
         <v>244.6451928061876</v>
@@ -7484,28 +7484,28 @@
         <v>125.6705731879924</v>
       </c>
       <c r="H42" t="n">
-        <v>47.8538878345965</v>
+        <v>47.85388783459651</v>
       </c>
       <c r="I42" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J42" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K42" t="n">
-        <v>137.7445263582622</v>
+        <v>332.4795213379896</v>
       </c>
       <c r="L42" t="n">
-        <v>448.3429690738722</v>
+        <v>474.2568821652545</v>
       </c>
       <c r="M42" t="n">
-        <v>626.372426265173</v>
+        <v>652.2863393565553</v>
       </c>
       <c r="N42" t="n">
-        <v>818.4794126403801</v>
+        <v>844.3933257317625</v>
       </c>
       <c r="O42" t="n">
-        <v>1261.873450882457</v>
+        <v>1005.69082023975</v>
       </c>
       <c r="P42" t="n">
         <v>1378.762417405294</v>
@@ -7514,28 +7514,28 @@
         <v>1748.895481510255</v>
       </c>
       <c r="R42" t="n">
-        <v>1791.491063604351</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S42" t="n">
-        <v>1791.491063604351</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T42" t="n">
-        <v>1618.881362534993</v>
+        <v>1618.881362534994</v>
       </c>
       <c r="U42" t="n">
         <v>1408.889613839289</v>
       </c>
       <c r="V42" t="n">
-        <v>1186.349612210356</v>
+        <v>1186.349612210357</v>
       </c>
       <c r="W42" t="n">
-        <v>956.232366343643</v>
+        <v>956.2323663436434</v>
       </c>
       <c r="X42" t="n">
-        <v>766.9252886936547</v>
+        <v>766.9252886936551</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.9252886936547</v>
+        <v>587.6110717691624</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>927.6769004977425</v>
+        <v>537.9995397185849</v>
       </c>
       <c r="C43" t="n">
-        <v>757.4717825637317</v>
+        <v>537.9995397185849</v>
       </c>
       <c r="D43" t="n">
-        <v>601.8386694662465</v>
+        <v>496.1042251921924</v>
       </c>
       <c r="E43" t="n">
-        <v>446.2798573254491</v>
+        <v>340.5454130513949</v>
       </c>
       <c r="F43" t="n">
-        <v>288.953922538422</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="G43" t="n">
-        <v>288.953922538422</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="H43" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I43" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J43" t="n">
-        <v>69.09848475894702</v>
+        <v>69.09848475894704</v>
       </c>
       <c r="K43" t="n">
-        <v>254.5315649273075</v>
+        <v>254.5315649273073</v>
       </c>
       <c r="L43" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272393997</v>
       </c>
       <c r="M43" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781576</v>
       </c>
       <c r="N43" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O43" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P43" t="n">
         <v>1713.402080241571</v>
@@ -7593,28 +7593,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R43" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S43" t="n">
-        <v>1708.497712225303</v>
+        <v>1604.530204619839</v>
       </c>
       <c r="T43" t="n">
-        <v>1650.848629077292</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="U43" t="n">
-        <v>1650.848629077292</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="V43" t="n">
-        <v>1384.869283898116</v>
+        <v>821.3299417874072</v>
       </c>
       <c r="W43" t="n">
-        <v>1384.869283898116</v>
+        <v>537.9995397185849</v>
       </c>
       <c r="X43" t="n">
-        <v>1150.788961681099</v>
+        <v>537.9995397185849</v>
       </c>
       <c r="Y43" t="n">
-        <v>927.6769004977425</v>
+        <v>537.9995397185849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1073.498501630474</v>
+        <v>810.4196048386441</v>
       </c>
       <c r="C44" t="n">
-        <v>863.8587860227972</v>
+        <v>810.4196048386441</v>
       </c>
       <c r="D44" t="n">
-        <v>863.8587860227972</v>
+        <v>810.4196048386441</v>
       </c>
       <c r="E44" t="n">
-        <v>863.8587860227972</v>
+        <v>810.4196048386441</v>
       </c>
       <c r="F44" t="n">
-        <v>446.964347552775</v>
+        <v>810.4196048386441</v>
       </c>
       <c r="G44" t="n">
-        <v>35.82982127208703</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="H44" t="n">
-        <v>35.82982127208703</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="I44" t="n">
         <v>35.82982127208703</v>
       </c>
       <c r="J44" t="n">
-        <v>88.04454835761862</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K44" t="n">
-        <v>199.2809258470408</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L44" t="n">
-        <v>509.1648750811937</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M44" t="n">
-        <v>952.5589133232706</v>
+        <v>823.2427787360873</v>
       </c>
       <c r="N44" t="n">
-        <v>1395.952951565348</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O44" t="n">
-        <v>1582.818057635034</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P44" t="n">
-        <v>1719.877451830168</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1791.491063604351</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R44" t="n">
         <v>1791.491063604351</v>
       </c>
       <c r="S44" t="n">
-        <v>1671.195782153852</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="T44" t="n">
-        <v>1671.195782153852</v>
+        <v>1576.869034623822</v>
       </c>
       <c r="U44" t="n">
-        <v>1415.605310926955</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="V44" t="n">
-        <v>1073.498501630474</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="W44" t="n">
-        <v>1073.498501630474</v>
+        <v>950.2795283652133</v>
       </c>
       <c r="X44" t="n">
-        <v>1073.498501630474</v>
+        <v>810.4196048386441</v>
       </c>
       <c r="Y44" t="n">
-        <v>1073.498501630474</v>
+        <v>810.4196048386441</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>661.8348815137274</v>
+        <v>786.2666876305956</v>
       </c>
       <c r="C45" t="n">
-        <v>511.1806510738195</v>
+        <v>635.6124571906878</v>
       </c>
       <c r="D45" t="n">
-        <v>381.0916836952999</v>
+        <v>505.5234898121681</v>
       </c>
       <c r="E45" t="n">
-        <v>244.6451928061876</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="F45" t="n">
         <v>244.6451928061876</v>
@@ -7727,25 +7727,25 @@
         <v>35.82982127208703</v>
       </c>
       <c r="J45" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K45" t="n">
-        <v>498.0909927375706</v>
+        <v>332.4795213379896</v>
       </c>
       <c r="L45" t="n">
-        <v>832.1138770305281</v>
+        <v>474.2568821652545</v>
       </c>
       <c r="M45" t="n">
-        <v>1275.507915272605</v>
+        <v>652.2863393565553</v>
       </c>
       <c r="N45" t="n">
-        <v>1467.614901647812</v>
+        <v>844.3933257317625</v>
       </c>
       <c r="O45" t="n">
-        <v>1628.912396155799</v>
+        <v>1005.69082023975</v>
       </c>
       <c r="P45" t="n">
-        <v>1745.801362678636</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q45" t="n">
         <v>1791.491063604351</v>
@@ -7754,25 +7754,25 @@
         <v>1791.491063604351</v>
       </c>
       <c r="S45" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="T45" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="U45" t="n">
-        <v>1466.725720451488</v>
+        <v>1581.499314908647</v>
       </c>
       <c r="V45" t="n">
-        <v>1412.369756395883</v>
+        <v>1358.959313279714</v>
       </c>
       <c r="W45" t="n">
-        <v>1182.25251052917</v>
+        <v>1128.842067413001</v>
       </c>
       <c r="X45" t="n">
-        <v>992.9454328791815</v>
+        <v>1117.37723899605</v>
       </c>
       <c r="Y45" t="n">
-        <v>813.6312159546887</v>
+        <v>938.0630220715569</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.8896731430693</v>
+        <v>924.8160426554061</v>
       </c>
       <c r="C46" t="n">
-        <v>507.8896731430693</v>
+        <v>924.8160426554061</v>
       </c>
       <c r="D46" t="n">
-        <v>507.8896731430693</v>
+        <v>769.1829295579209</v>
       </c>
       <c r="E46" t="n">
-        <v>507.8896731430693</v>
+        <v>613.6241174171234</v>
       </c>
       <c r="F46" t="n">
-        <v>350.5637383560422</v>
+        <v>456.2981826300963</v>
       </c>
       <c r="G46" t="n">
-        <v>183.2194782643679</v>
+        <v>288.953922538422</v>
       </c>
       <c r="H46" t="n">
-        <v>35.82982127208703</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="I46" t="n">
         <v>35.82982127208703</v>
@@ -7830,28 +7830,28 @@
         <v>1791.491063604351</v>
       </c>
       <c r="R46" t="n">
-        <v>1750.908666906977</v>
+        <v>1727.615933582496</v>
       </c>
       <c r="S46" t="n">
-        <v>1750.908666906977</v>
+        <v>1727.615933582496</v>
       </c>
       <c r="T46" t="n">
-        <v>1750.908666906977</v>
+        <v>1727.615933582496</v>
       </c>
       <c r="U46" t="n">
-        <v>1465.519500265726</v>
+        <v>1442.226766941245</v>
       </c>
       <c r="V46" t="n">
-        <v>1199.54015508655</v>
+        <v>1442.226766941245</v>
       </c>
       <c r="W46" t="n">
-        <v>916.2097530177273</v>
+        <v>1158.896364872423</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2097530177273</v>
+        <v>924.8160426554061</v>
       </c>
       <c r="Y46" t="n">
-        <v>693.0976918343706</v>
+        <v>924.8160426554061</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>38.1192377859347</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>52.11814045842952</v>
+        <v>13.99890267249441</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>363.9863296760691</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>265.5304136734764</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>242.5903508178453</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>329.8031027467074</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.4725364634484</v>
+        <v>52.47253646344819</v>
       </c>
       <c r="K13" t="n">
         <v>166.520275497658</v>
@@ -8868,7 +8868,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692921</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>335.5127886390453</v>
       </c>
       <c r="L14" t="n">
-        <v>38.11923778593496</v>
+        <v>33.81783457634089</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>13.9989026724944</v>
+        <v>13.99890267249441</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>258.7703339825329</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>268.0450313644205</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>318.4458714860369</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>135.2929443298424</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>280.8119108860277</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>238.7082650465138</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>259.120133507465</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>13.99890267249441</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>304.6633105200123</v>
+        <v>301.7961744816207</v>
       </c>
       <c r="M18" t="n">
-        <v>71.02812791350291</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>27.98796440657267</v>
@@ -9409,19 +9409,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>130.6223581688722</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>238.7082650465138</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>38.11923778593382</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>13.99890267249441</v>
@@ -9482,19 +9482,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>301.7961744816196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>268.0450313644205</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>33.75114311720051</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>408.1348596858609</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>402.9318349640582</v>
       </c>
       <c r="M23" t="n">
-        <v>363.6998904549283</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>105.1121955082953</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>423.343296428062</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>372.50529082408</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>129.5485545478482</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>316.129356929329</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9877,22 +9877,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>454.1927745470949</v>
       </c>
       <c r="L26" t="n">
-        <v>33.34637719748986</v>
+        <v>27.6743904001471</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>357.3882509545634</v>
       </c>
       <c r="O26" t="n">
-        <v>377.8001194155148</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>428.1089192888011</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>204.3066172022611</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>403.6259896798576</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>448.4830886547571</v>
+        <v>316.129356929329</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>402.9318349640583</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>357.3882509545635</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.51466422216728</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>419.5253181429958</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>13.99890267249441</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>386.7250172724703</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>372.50529082408</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>403.6259896798576</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>316.129356929329</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.2872533905937</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>58.52346152223254</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>402.9318349640583</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>343.7258308519883</v>
+        <v>377.8001194155148</v>
       </c>
       <c r="P32" t="n">
-        <v>428.1089192888011</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>13.99890267249441</v>
@@ -10427,13 +10427,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>423.343296428062</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>11.75139634456053</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>448.4830886547571</v>
+        <v>316.1293569293297</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>245.0199045468786</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>40.46259250011911</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>259.1201335074649</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>38.11923778593521</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>13.99890267249441</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>301.7961744816207</v>
+        <v>258.7703339825331</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>309.4289333807513</v>
+        <v>38.11923778593521</v>
       </c>
       <c r="Q38" t="n">
-        <v>323.6924095030698</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>13.99890267249441</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>258.7703339825331</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>284.9460037718078</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>329.8031027467074</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>211.469651962068</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.47253646344819</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>213.3912451250118</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>38.1192377859347</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>13.99890267249441</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>170.5263453417627</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>284.9460037718078</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>258.7703339825329</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11220,7 +11220,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>166.5202754976577</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>149.3931732904286</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>245.0199045468786</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>238.7082650465137</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>280.8119108860277</v>
       </c>
       <c r="R44" t="n">
-        <v>13.99890267249441</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>363.986329676069</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>194.1873974400935</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>268.0450313644204</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>301.7961744816203</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>27.98796440657267</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>193.0018405137135</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23272,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I11" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4758086907236</v>
+        <v>91.14750732798974</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>61.61187167441921</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>102.2756783798057</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>94.99700987196491</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S13" t="n">
-        <v>173.4424818095556</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>275.678284312047</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>407.0231810178811</v>
       </c>
       <c r="H14" t="n">
-        <v>300.2783333401841</v>
+        <v>247.1439839337382</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>212.4758086907236</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50.83378704718289</v>
       </c>
       <c r="I15" t="n">
-        <v>11.90382589688436</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>57.10783906224287</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
@@ -23673,7 +23673,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I16" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.59192456854905</v>
+        <v>155.3422000500887</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23743,16 +23743,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>295.7326180010656</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>238.3092721737739</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T18" t="n">
-        <v>170.8836040586646</v>
+        <v>28.93655082179595</v>
       </c>
       <c r="U18" t="n">
-        <v>160.9016075485594</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.14280677444171</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>102.3219961847008</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23983,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.36837864795524</v>
       </c>
       <c r="H20" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>59.54237137282635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>101.9507786706133</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>7.48038335416399</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>3.98576575542458</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>24.79616858855746</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.12685451300416</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I22" t="n">
         <v>104.6770998313136</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,13 +24214,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>394.8743733486782</v>
+        <v>170.975233078732</v>
       </c>
       <c r="G23" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T23" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.90680355491844</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>69.92996757371132</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S25" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>212.2485701166801</v>
       </c>
       <c r="V26" t="n">
-        <v>302.7375952747955</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8712250353305</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>53.00461823623648</v>
       </c>
       <c r="I28" t="n">
         <v>104.6770998313136</v>
@@ -24651,13 +24651,13 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S28" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>324.1488589198984</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>150.6853159370389</v>
       </c>
       <c r="G29" t="n">
         <v>407.0231810178811</v>
       </c>
       <c r="H29" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>212.4758086907236</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>115.7828623494059</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H31" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>173.4424818095557</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>157.5768001449111</v>
       </c>
       <c r="E32" t="n">
-        <v>349.5486145192895</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H32" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>214.5425953608421</v>
+        <v>72.73932017717024</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>407.0231810178811</v>
+        <v>353.8961968665315</v>
       </c>
       <c r="H35" t="n">
         <v>300.2783333401841</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>182.8232068875009</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U35" t="n">
         <v>253.0345665146277</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>47.55549749149417</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>11.90382589688437</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>35.65167159461004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25323,7 +25323,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>126.0172813586551</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>194.8940425499795</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>314.2992169113851</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>14.39231258400025</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1.870505732765196</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7848734220132</v>
+        <v>84.10871158003613</v>
       </c>
       <c r="H39" t="n">
         <v>77.03851849986194</v>
       </c>
       <c r="I39" t="n">
-        <v>11.90382589688437</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>140.392004092312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>145.915760422358</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>257.5987287160276</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>46.23237032103305</v>
+        <v>297.8516435466</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>19.14798494757142</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>83.07732711441487</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,10 +25788,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>112.6004205853819</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S43" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>172.4408411853542</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>181.7004280304991</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25876,16 +25876,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T44" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>247.0967547249702</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T45" t="n">
         <v>170.8836040586646</v>
@@ -26003,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>166.5021971975949</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>176.0638267407066</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.98684513485758</v>
+        <v>18.92703914362219</v>
       </c>
       <c r="S46" t="n">
         <v>185.0912503946672</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>463240.558192156</v>
+        <v>463240.5581921561</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>463240.5581921558</v>
+        <v>463240.558192156</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>463240.5581921558</v>
+        <v>463240.5581921561</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>463240.558192156</v>
+        <v>463240.5581921558</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>539524.810221217</v>
+        <v>539524.8102212169</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>539524.810221217</v>
+        <v>539524.8102212169</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>539524.810221217</v>
+        <v>539524.8102212171</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>463240.5581921559</v>
+        <v>463240.558192156</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557687.5860756228</v>
+        <v>557687.5860756227</v>
       </c>
       <c r="C2" t="n">
         <v>557687.5860756227</v>
@@ -26325,37 +26325,37 @@
         <v>330522.2258666619</v>
       </c>
       <c r="F2" t="n">
-        <v>330522.2258666618</v>
+        <v>330522.2258666619</v>
       </c>
       <c r="G2" t="n">
-        <v>330522.225866662</v>
+        <v>330522.2258666621</v>
       </c>
       <c r="H2" t="n">
         <v>330522.2258666618</v>
       </c>
       <c r="I2" t="n">
-        <v>374069.4303711077</v>
+        <v>374069.4303711076</v>
       </c>
       <c r="J2" t="n">
-        <v>374069.4303711077</v>
+        <v>374069.4303711076</v>
       </c>
       <c r="K2" t="n">
-        <v>374069.4303711076</v>
+        <v>374069.4303711078</v>
       </c>
       <c r="L2" t="n">
         <v>374069.4303711076</v>
       </c>
       <c r="M2" t="n">
+        <v>330522.2258666618</v>
+      </c>
+      <c r="N2" t="n">
         <v>330522.225866662</v>
-      </c>
-      <c r="N2" t="n">
-        <v>330522.2258666619</v>
       </c>
       <c r="O2" t="n">
         <v>330522.225866662</v>
       </c>
       <c r="P2" t="n">
-        <v>330522.2258666619</v>
+        <v>330522.225866662</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31559.50053265449</v>
+        <v>31559.50053265454</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>82036.15754538515</v>
+        <v>82036.1575453851</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="C4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="D4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="E4" t="n">
+        <v>47810.64758486952</v>
+      </c>
+      <c r="F4" t="n">
         <v>47810.64758486953</v>
-      </c>
-      <c r="F4" t="n">
-        <v>47810.64758486952</v>
       </c>
       <c r="G4" t="n">
         <v>47810.64758486952</v>
       </c>
       <c r="H4" t="n">
-        <v>47810.64758486952</v>
+        <v>47810.64758486947</v>
       </c>
       <c r="I4" t="n">
-        <v>69395.70308733483</v>
+        <v>69395.7030873348</v>
       </c>
       <c r="J4" t="n">
         <v>69395.70308733481</v>
       </c>
       <c r="K4" t="n">
-        <v>69395.7030873348</v>
+        <v>69395.70308733481</v>
       </c>
       <c r="L4" t="n">
         <v>69395.70308733481</v>
       </c>
       <c r="M4" t="n">
-        <v>47810.64758486951</v>
+        <v>47810.64758486953</v>
       </c>
       <c r="N4" t="n">
         <v>47810.64758486953</v>
       </c>
       <c r="O4" t="n">
+        <v>47810.64758486952</v>
+      </c>
+      <c r="P4" t="n">
         <v>47810.64758486951</v>
-      </c>
-      <c r="P4" t="n">
-        <v>47810.64758486952</v>
       </c>
     </row>
     <row r="5">
@@ -26487,16 +26487,16 @@
         <v>38119.25843022532</v>
       </c>
       <c r="H5" t="n">
-        <v>38119.25843022532</v>
+        <v>38119.2584302253</v>
       </c>
       <c r="I5" t="n">
-        <v>45335.00157343475</v>
+        <v>45335.00157343474</v>
       </c>
       <c r="J5" t="n">
-        <v>45335.00157343475</v>
+        <v>45335.00157343474</v>
       </c>
       <c r="K5" t="n">
-        <v>45335.00157343475</v>
+        <v>45335.00157343474</v>
       </c>
       <c r="L5" t="n">
         <v>45335.00157343475</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142759.8674535904</v>
+        <v>142755.5378858037</v>
       </c>
       <c r="C6" t="n">
-        <v>142759.8674535903</v>
+        <v>142755.5378858037</v>
       </c>
       <c r="D6" t="n">
-        <v>142759.8674535903</v>
+        <v>142755.5378858037</v>
       </c>
       <c r="E6" t="n">
-        <v>-290413.7952598601</v>
+        <v>-291150.9163121915</v>
       </c>
       <c r="F6" t="n">
-        <v>244592.319851567</v>
+        <v>243855.1987992356</v>
       </c>
       <c r="G6" t="n">
-        <v>244592.3198515672</v>
+        <v>243855.1987992358</v>
       </c>
       <c r="H6" t="n">
-        <v>244592.319851567</v>
+        <v>243855.1987992355</v>
       </c>
       <c r="I6" t="n">
-        <v>227779.2251776836</v>
+        <v>227182.5789785923</v>
       </c>
       <c r="J6" t="n">
-        <v>259338.7257103382</v>
+        <v>258742.0795112468</v>
       </c>
       <c r="K6" t="n">
-        <v>259338.7257103381</v>
+        <v>258742.079511247</v>
       </c>
       <c r="L6" t="n">
-        <v>259338.7257103381</v>
+        <v>258742.0795112468</v>
       </c>
       <c r="M6" t="n">
-        <v>162556.162306182</v>
+        <v>161819.0412538504</v>
       </c>
       <c r="N6" t="n">
-        <v>244592.319851567</v>
+        <v>243855.1987992358</v>
       </c>
       <c r="O6" t="n">
-        <v>244592.3198515672</v>
+        <v>243855.1987992357</v>
       </c>
       <c r="P6" t="n">
-        <v>244592.319851567</v>
+        <v>243855.1987992358</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="F3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="G3" t="n">
         <v>499.4768010751915</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="F4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="G4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="H4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010876</v>
       </c>
       <c r="I4" t="n">
-        <v>566.5527518091377</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="J4" t="n">
-        <v>566.5527518091377</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="K4" t="n">
-        <v>566.5527518091377</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="L4" t="n">
         <v>566.5527518091377</v>
       </c>
       <c r="M4" t="n">
-        <v>447.8727659010879</v>
+        <v>447.872765901088</v>
       </c>
       <c r="N4" t="n">
-        <v>447.8727659010879</v>
+        <v>447.872765901088</v>
       </c>
       <c r="O4" t="n">
-        <v>447.8727659010879</v>
+        <v>447.872765901088</v>
       </c>
       <c r="P4" t="n">
         <v>447.8727659010879</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>499.4768010751916</v>
+        <v>499.4768010751915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.6799859080497</v>
+        <v>118.6799859080499</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>329.1927799930385</v>
+        <v>329.1927799930382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,19 +31755,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H11" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I11" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J11" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K11" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L11" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M11" t="n">
         <v>352.5779129519366</v>
@@ -31779,7 +31779,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P11" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q11" t="n">
         <v>216.8356800084767</v>
@@ -31837,7 +31837,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I12" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J12" t="n">
         <v>101.5021676600066</v>
@@ -31855,7 +31855,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O12" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P12" t="n">
         <v>205.1530279736952</v>
@@ -31873,7 +31873,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H13" t="n">
         <v>8.008005105762912</v>
@@ -31919,10 +31919,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J13" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K13" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L13" t="n">
         <v>133.9089115538309</v>
@@ -31952,7 +31952,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,19 +31992,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H14" t="n">
-        <v>20.56388658899017</v>
+        <v>20.56388658899016</v>
       </c>
       <c r="I14" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563346</v>
       </c>
       <c r="J14" t="n">
-        <v>170.4219865135902</v>
+        <v>170.4219865135901</v>
       </c>
       <c r="K14" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L14" t="n">
-        <v>316.8690865755711</v>
+        <v>316.869086575571</v>
       </c>
       <c r="M14" t="n">
         <v>352.5779129519366</v>
@@ -32016,7 +32016,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P14" t="n">
-        <v>288.7452797612619</v>
+        <v>288.7452797612618</v>
       </c>
       <c r="Q14" t="n">
         <v>216.8356800084767</v>
@@ -32074,7 +32074,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I15" t="n">
-        <v>36.98955555132316</v>
+        <v>36.98955555132315</v>
       </c>
       <c r="J15" t="n">
         <v>101.5021676600066</v>
@@ -32092,7 +32092,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O15" t="n">
-        <v>255.6143210181691</v>
+        <v>255.614321018169</v>
       </c>
       <c r="P15" t="n">
         <v>205.1530279736952</v>
@@ -32110,7 +32110,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07068067939743281</v>
+        <v>0.07068067939743279</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913288</v>
       </c>
       <c r="H16" t="n">
         <v>8.008005105762912</v>
@@ -32156,10 +32156,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J16" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494695</v>
       </c>
       <c r="K16" t="n">
-        <v>104.6444838973926</v>
+        <v>104.6444838973925</v>
       </c>
       <c r="L16" t="n">
         <v>133.9089115538309</v>
@@ -32189,7 +32189,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0491288656795271</v>
+        <v>0.04912886567952709</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K11" t="n">
-        <v>112.3599772620427</v>
+        <v>150.4792150479773</v>
       </c>
       <c r="L11" t="n">
-        <v>163.6209168450794</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M11" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N11" t="n">
         <v>209.1645008545742</v>
@@ -35427,13 +35427,13 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P11" t="n">
-        <v>138.4438325203367</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q11" t="n">
-        <v>403.5483670195359</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R11" t="n">
-        <v>38.11923778593513</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K12" t="n">
-        <v>83.88643622501881</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="L12" t="n">
-        <v>143.2094553810758</v>
+        <v>408.7398690545521</v>
       </c>
       <c r="M12" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N12" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O12" t="n">
-        <v>405.5171129471254</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P12" t="n">
-        <v>447.872765901088</v>
+        <v>118.0696631543805</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.15121305627825</v>
+        <v>46.15121305627822</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278767</v>
       </c>
       <c r="K13" t="n">
         <v>187.3061415842025</v>
@@ -35588,7 +35588,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.87776097250622</v>
+        <v>78.87776097250641</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K14" t="n">
-        <v>112.3599772620427</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="L14" t="n">
-        <v>201.7401546310143</v>
+        <v>197.4387514214202</v>
       </c>
       <c r="M14" t="n">
-        <v>202.8528613542094</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N14" t="n">
         <v>209.1645008545742</v>
@@ -35664,10 +35664,10 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P14" t="n">
-        <v>138.4438325203367</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q14" t="n">
-        <v>403.5483670195359</v>
+        <v>72.33698159008455</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K15" t="n">
-        <v>83.88643622501881</v>
+        <v>342.6567702075517</v>
       </c>
       <c r="L15" t="n">
-        <v>143.2094553810758</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M15" t="n">
-        <v>447.872765901088</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N15" t="n">
-        <v>194.0474609850578</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O15" t="n">
-        <v>162.9267621292802</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P15" t="n">
-        <v>118.0696631543806</v>
+        <v>118.0696631543805</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.5970845423151</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R15" t="n">
         <v>43.02584049908781</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K16" t="n">
         <v>187.3061415842025</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.0350929010864</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K17" t="n">
-        <v>112.3599772620426</v>
+        <v>393.1718881480704</v>
       </c>
       <c r="L17" t="n">
         <v>163.6209168450793</v>
@@ -35895,10 +35895,10 @@
         <v>202.8528613542093</v>
       </c>
       <c r="N17" t="n">
-        <v>447.872765901088</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O17" t="n">
-        <v>447.872765901088</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P17" t="n">
         <v>138.4438325203366</v>
@@ -35907,7 +35907,7 @@
         <v>72.33698159008455</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>83.88643622501881</v>
       </c>
       <c r="L18" t="n">
-        <v>447.872765901088</v>
+        <v>445.0056298626964</v>
       </c>
       <c r="M18" t="n">
-        <v>250.8558624501703</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N18" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O18" t="n">
         <v>162.9267621292801</v>
@@ -35983,7 +35983,7 @@
         <v>118.0696631543805</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>163.6209168450793</v>
       </c>
       <c r="M20" t="n">
-        <v>333.4752195230815</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N20" t="n">
-        <v>447.872765901088</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O20" t="n">
         <v>188.7526323936229</v>
       </c>
       <c r="P20" t="n">
-        <v>138.4438325203366</v>
+        <v>176.5630703062704</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.33698159008455</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K21" t="n">
-        <v>83.88643622501881</v>
+        <v>385.6826107066384</v>
       </c>
       <c r="L21" t="n">
         <v>143.2094553810757</v>
       </c>
       <c r="M21" t="n">
-        <v>447.872765901088</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N21" t="n">
         <v>194.0474609850577</v>
       </c>
       <c r="O21" t="n">
-        <v>196.6779052464806</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P21" t="n">
         <v>118.0696631543805</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K23" t="n">
-        <v>520.4948369479035</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L23" t="n">
-        <v>163.6209168450793</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="M23" t="n">
-        <v>566.5527518091377</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N23" t="n">
         <v>209.1645008545742</v>
@@ -36375,7 +36375,7 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P23" t="n">
-        <v>138.4438325203366</v>
+        <v>243.5560280286319</v>
       </c>
       <c r="Q23" t="n">
         <v>403.5483670195358</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K24" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L24" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M24" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N24" t="n">
-        <v>566.5527518091377</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O24" t="n">
-        <v>292.4753166771283</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P24" t="n">
-        <v>118.0696631543805</v>
+        <v>434.1990200837095</v>
       </c>
       <c r="Q24" t="n">
         <v>373.8717819242028</v>
@@ -36597,22 +36597,22 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K26" t="n">
-        <v>112.3599772620426</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="L26" t="n">
-        <v>196.9672940425692</v>
+        <v>191.2953072452264</v>
       </c>
       <c r="M26" t="n">
         <v>202.8528613542093</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1645008545742</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="O26" t="n">
-        <v>566.5527518091377</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P26" t="n">
-        <v>566.5527518091377</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q26" t="n">
         <v>72.33698159008455</v>
@@ -36676,10 +36676,10 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K27" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L27" t="n">
-        <v>347.5160725833368</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M27" t="n">
         <v>179.8277345366674</v>
@@ -36688,13 +36688,13 @@
         <v>194.0474609850577</v>
       </c>
       <c r="O27" t="n">
-        <v>566.5527518091377</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P27" t="n">
-        <v>566.5527518091377</v>
+        <v>434.1990200837095</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R27" t="n">
         <v>43.02584049908781</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K29" t="n">
         <v>112.3599772620426</v>
       </c>
       <c r="L29" t="n">
-        <v>566.5527518091377</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M29" t="n">
         <v>202.8528613542093</v>
       </c>
       <c r="N29" t="n">
-        <v>566.5527518091377</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O29" t="n">
-        <v>200.2672966157902</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P29" t="n">
-        <v>138.4438325203366</v>
+        <v>557.9691506633325</v>
       </c>
       <c r="Q29" t="n">
         <v>403.5483670195358</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K30" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L30" t="n">
         <v>143.2094553810757</v>
       </c>
       <c r="M30" t="n">
-        <v>566.5527518091377</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N30" t="n">
-        <v>566.5527518091377</v>
+        <v>194.0474609850577</v>
       </c>
       <c r="O30" t="n">
-        <v>566.5527518091377</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P30" t="n">
-        <v>118.0696631543805</v>
+        <v>434.1990200837095</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.4384664468719</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K32" t="n">
-        <v>112.3599772620426</v>
+        <v>170.8834387842752</v>
       </c>
       <c r="L32" t="n">
-        <v>163.6209168450793</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="M32" t="n">
         <v>202.8528613542093</v>
@@ -37083,13 +37083,13 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O32" t="n">
-        <v>532.4784632456112</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="P32" t="n">
-        <v>566.5527518091377</v>
+        <v>138.4438325203366</v>
       </c>
       <c r="Q32" t="n">
-        <v>403.5483670195358</v>
+        <v>72.33698159008455</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K33" t="n">
         <v>496.4522059646415</v>
       </c>
       <c r="L33" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M33" t="n">
         <v>179.8277345366674</v>
@@ -37162,16 +37162,16 @@
         <v>194.0474609850577</v>
       </c>
       <c r="O33" t="n">
-        <v>174.6781584738407</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P33" t="n">
-        <v>566.5527518091377</v>
+        <v>434.1990200837103</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K35" t="n">
         <v>112.3599772620426</v>
@@ -37314,22 +37314,22 @@
         <v>163.6209168450793</v>
       </c>
       <c r="M35" t="n">
-        <v>447.8727659010879</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N35" t="n">
-        <v>249.6270933546933</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O35" t="n">
-        <v>447.8727659010879</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P35" t="n">
-        <v>138.4438325203366</v>
+        <v>176.5630703062718</v>
       </c>
       <c r="Q35" t="n">
-        <v>72.33698159008455</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R35" t="n">
-        <v>88.51871232935819</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K36" t="n">
-        <v>385.6826107066395</v>
+        <v>342.6567702075519</v>
       </c>
       <c r="L36" t="n">
         <v>143.2094553810757</v>
@@ -37408,7 +37408,7 @@
         <v>373.8717819242028</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K38" t="n">
         <v>112.3599772620426</v>
@@ -37560,10 +37560,10 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P38" t="n">
-        <v>447.8727659010879</v>
+        <v>176.5630703062718</v>
       </c>
       <c r="Q38" t="n">
-        <v>396.0293910931543</v>
+        <v>403.5483670195358</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K39" t="n">
-        <v>83.88643622501881</v>
+        <v>342.6567702075519</v>
       </c>
       <c r="L39" t="n">
         <v>143.2094553810757</v>
@@ -37636,16 +37636,16 @@
         <v>194.0474609850577</v>
       </c>
       <c r="O39" t="n">
-        <v>447.8727659010879</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P39" t="n">
-        <v>447.8727659010879</v>
+        <v>118.0696631543805</v>
       </c>
       <c r="Q39" t="n">
-        <v>257.6208650183463</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.60471059278767</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K40" t="n">
         <v>187.3061415842025</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>316.5328682396791</v>
+        <v>52.74214857124403</v>
       </c>
       <c r="K41" t="n">
-        <v>112.3599772620426</v>
+        <v>325.7512223870544</v>
       </c>
       <c r="L41" t="n">
         <v>163.6209168450793</v>
@@ -37791,7 +37791,7 @@
         <v>202.8528613542093</v>
       </c>
       <c r="N41" t="n">
-        <v>247.2837386405089</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O41" t="n">
         <v>188.7526323936229</v>
@@ -37803,7 +37803,7 @@
         <v>403.5483670195358</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K42" t="n">
         <v>83.88643622501881</v>
       </c>
       <c r="L42" t="n">
-        <v>313.7358007228384</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M42" t="n">
         <v>179.8277345366674</v>
@@ -37873,10 +37873,10 @@
         <v>194.0474609850577</v>
       </c>
       <c r="O42" t="n">
-        <v>447.8727659010879</v>
+        <v>162.9267621292801</v>
       </c>
       <c r="P42" t="n">
-        <v>118.0696631543805</v>
+        <v>376.8399971369134</v>
       </c>
       <c r="Q42" t="n">
         <v>373.8717819242028</v>
@@ -37940,7 +37940,7 @@
         <v>33.60471059278788</v>
       </c>
       <c r="K43" t="n">
-        <v>187.3061415842025</v>
+        <v>187.3061415842023</v>
       </c>
       <c r="L43" t="n">
         <v>299.6944063758509</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K44" t="n">
         <v>112.3599772620426</v>
       </c>
       <c r="L44" t="n">
-        <v>313.014090135508</v>
+        <v>163.6209168450793</v>
       </c>
       <c r="M44" t="n">
-        <v>447.8727659010879</v>
+        <v>202.8528613542093</v>
       </c>
       <c r="N44" t="n">
-        <v>447.8727659010879</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O44" t="n">
         <v>188.7526323936229</v>
@@ -38037,10 +38037,10 @@
         <v>138.4438325203366</v>
       </c>
       <c r="Q44" t="n">
-        <v>72.33698159008455</v>
+        <v>353.1488924761122</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>88.51871232935819</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K45" t="n">
-        <v>447.8727659010879</v>
+        <v>83.88643622501881</v>
       </c>
       <c r="L45" t="n">
-        <v>337.3968528211693</v>
+        <v>143.2094553810757</v>
       </c>
       <c r="M45" t="n">
-        <v>447.8727659010879</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N45" t="n">
         <v>194.0474609850577</v>
@@ -38113,10 +38113,10 @@
         <v>162.9267621292801</v>
       </c>
       <c r="P45" t="n">
-        <v>118.0696631543805</v>
+        <v>419.8658376360008</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242028</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
